--- a/sources/case/Approval.xlsx
+++ b/sources/case/Approval.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
   <si>
     <t>CaseID</t>
   </si>
@@ -101,12 +101,6 @@
     <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
   </si>
   <si>
-    <t>sync_field</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>审批通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,9 +147,6 @@
   </si>
   <si>
     <t>employee_adjust</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>user_name</t>
@@ -573,19 +564,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -618,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -626,79 +617,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +701,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -728,10 +719,9 @@
     <col min="10" max="10" width="40.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -742,7 +732,7 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
@@ -763,18 +753,15 @@
         <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -783,7 +770,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -792,7 +779,7 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
@@ -804,18 +791,15 @@
         <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -824,7 +808,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -833,7 +817,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
@@ -845,18 +829,15 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -865,7 +846,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -874,7 +855,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
@@ -886,18 +867,15 @@
         <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -906,7 +884,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -915,7 +893,7 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
@@ -927,18 +905,15 @@
         <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -947,7 +922,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -956,7 +931,7 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
@@ -968,18 +943,15 @@
         <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -988,7 +960,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -997,7 +969,7 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
@@ -1009,18 +981,15 @@
         <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1029,7 +998,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -1038,7 +1007,7 @@
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
         <v>21</v>
@@ -1050,13 +1019,10 @@
         <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/Approval.xlsx
+++ b/sources/case/Approval.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
   <si>
     <t>CaseID</t>
   </si>
@@ -83,12 +83,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>from_service</t>
-  </si>
-  <si>
-    <t>hr</t>
-  </si>
-  <si>
     <t>is_deleted</t>
   </si>
   <si>
@@ -143,21 +137,9 @@
     <t>${GetInstanceInfo.tasks[6].uuid}</t>
   </si>
   <si>
-    <t>95d72f09-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>employee_adjust</t>
-  </si>
-  <si>
     <t>user_name</t>
   </si>
   <si>
-    <t>approval_type_id</t>
-  </si>
-  <si>
-    <t>form_name</t>
-  </si>
-  <si>
     <t>${GetInstanceInfo.title}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,6 +179,10 @@
   </si>
   <si>
     <t>Approval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,19 +550,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -593,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -609,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -617,79 +603,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -701,10 +687,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -712,16 +698,14 @@
     <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -732,7 +716,7 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
@@ -749,19 +733,10 @@
       <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -770,7 +745,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -779,27 +754,18 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -808,7 +774,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -817,7 +783,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
@@ -825,19 +791,10 @@
       <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -846,7 +803,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -855,7 +812,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
@@ -863,19 +820,10 @@
       <c r="I4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -884,7 +832,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -893,7 +841,7 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
@@ -901,19 +849,10 @@
       <c r="I5" t="s">
         <v>23</v>
       </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -922,7 +861,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -931,7 +870,7 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
@@ -939,19 +878,10 @@
       <c r="I6" t="s">
         <v>23</v>
       </c>
-      <c r="J6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -960,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -969,7 +899,7 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
@@ -977,19 +907,10 @@
       <c r="I7" t="s">
         <v>23</v>
       </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -998,7 +919,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -1007,22 +928,13 @@
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
         <v>21</v>
       </c>
       <c r="I8" t="s">
         <v>23</v>
-      </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/Approval.xlsx
+++ b/sources/case/Approval.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
   <si>
     <t>CaseID</t>
   </si>
@@ -59,9 +59,6 @@
     <t>tenant_id</t>
   </si>
   <si>
-    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
-  </si>
-  <si>
     <t>attachments</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>user_id</t>
   </si>
   <si>
-    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
-  </si>
-  <si>
     <t>审批通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,45 +138,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/automation/v1/approval/instances/{instance_id}/op/approve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_2</t>
+  </si>
+  <si>
+    <t>Approval_3</t>
+  </si>
+  <si>
+    <t>Approval_4</t>
+  </si>
+  <si>
+    <t>Approval_5</t>
+  </si>
+  <si>
+    <t>Approval_6</t>
+  </si>
+  <si>
+    <t>Approval_7</t>
+  </si>
+  <si>
+    <t>Approval_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${Auth.tenant_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${GetInstanceInfo.user_name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/automation/v1/approval/instances/{instance_id}/op/approve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approval_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approval_2</t>
-  </si>
-  <si>
-    <t>Approval_3</t>
-  </si>
-  <si>
-    <t>Approval_4</t>
-  </si>
-  <si>
-    <t>Approval_5</t>
-  </si>
-  <si>
-    <t>Approval_6</t>
-  </si>
-  <si>
-    <t>Approval_7</t>
-  </si>
-  <si>
-    <t>Approval_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
+    <t>${GetInstanceInfo.user_id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +513,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -550,19 +548,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -579,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -595,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -603,79 +601,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -689,20 +687,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -713,228 +711,228 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/Approval.xlsx
+++ b/sources/case/Approval.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
   <si>
     <t>CaseID</t>
   </si>
@@ -69,12 +69,6 @@
   </si>
   <si>
     <t>{}</t>
-  </si>
-  <si>
-    <t>approval_type</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>title</t>
@@ -548,19 +542,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -593,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -601,79 +595,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -685,10 +679,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -697,13 +691,12 @@
     <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +707,7 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -723,216 +716,192 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/Approval.xlsx
+++ b/sources/case/Approval.xlsx
@@ -507,7 +507,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -572,7 +572,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -682,7 +682,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
